--- a/OutputData/After Normalization/Old experiments.xlsx
+++ b/OutputData/After Normalization/Old experiments.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fuzzy and Crisp" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="17 &amp; 23" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>USERREQ ID</t>
   </si>
@@ -762,11 +763,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="107084032"/>
-        <c:axId val="115122944"/>
+        <c:axId val="75832704"/>
+        <c:axId val="75851648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107084032"/>
+        <c:axId val="75832704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,14 +793,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115122944"/>
+        <c:crossAx val="75851648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115122944"/>
+        <c:axId val="75851648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -836,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107084032"/>
+        <c:crossAx val="75832704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,7 +860,1039 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REQ COST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$C$3:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$D$3:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>113.64406779661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.706896551724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.771929824561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.771929824561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.839285714285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.90909090909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.056603773584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.215686274509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>114.215686274509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>114.38775510204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114.886363636363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>114.886363636363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.886363636363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114.87804878048701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crisp broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$M$3:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="133459328"/>
+        <c:axId val="61441152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="133459328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61441152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61441152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133459328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REQ BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$G$3:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>74.877033571786001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.148773753208204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.153641379865405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.994379242665502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.9199901954388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.053415508498105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.214230041656805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.547494831831997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.548932538549593</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.675278975635806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.615465537068701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.032435337396507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.919603284189293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.079225528709699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.104710551391094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.492499631830299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.638150509202902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.542834289401995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.095732415009905</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.628633628000998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.001400039706098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.139527333029903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79.273339401111699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.396547430339496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.681673604104503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.640312858420799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.364826763342293</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.995941822956198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.619329518437496</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.612019893511402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$H$3:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>89.950233637771902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.219371619606704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.7737177081341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.471423316384801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.069807891077105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.826192867050295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.919242426584603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.311388524322496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.585978751259304</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.251844564647698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.739752845928905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.561025372902904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.151489813137601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.145471721438795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.534617920464996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.841210865612695</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.266579250477207</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crisp broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$Q$3:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="2">
+                  <c:v>76.625105324896495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.238683110422997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.254188371295101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.753108830441704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.936787399107104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.658512264056895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.363213686904501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.867970195856898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.578277297300403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.332370771075603</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.278045995287997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.038643025193196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.333306750019801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.692138368707305</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.993157245371094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.578006038426395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="54556160"/>
+        <c:axId val="57975936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54556160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57975936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57975936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54556160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REQ AVAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$E$3:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>82.291894604534406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.048630825867804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.822117273015905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.560054781188796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.674104314774496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.132234655528194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.054967903669805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.562176929540001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.9480904714746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.522351405912005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.016563036154494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.193248350281493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.958236198971804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.445849291894405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.589854542551507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.120655424333904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.897518053257699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.510130255548205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.714477554510296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.327095398752604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.475512979217001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.376760324211403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.572608125530905</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.075658006137303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.833398909536498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.782439062195905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.871820823861199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.672612253531597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$F$3:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>94.6932493273723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.6743541087734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.372557624597704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.168215748039003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.470723181578705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.8903012183426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.898844317368201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.297043907649893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.927300181036202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.297820822191696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.841939437622798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.797742359363298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.470800250612101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.5002209263411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.994371288471896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.803470739069397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.282220799555802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crisp broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$O$3:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="2">
+                  <c:v>82.740390072387299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.596990180809797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.397193631098006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.634710440091496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.367073845482196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.457254688769694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.5248677370178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.037048784669096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.276888745002296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.917211177430801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.157445817911807</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.235715261470403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.472848750275901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.103180771404496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.9276498147008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78.875956300392104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="54541696"/>
+        <c:axId val="54543872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54541696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54543872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54543872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54541696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1297,11 +2330,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="55122944"/>
-        <c:axId val="55133312"/>
+        <c:axId val="102173696"/>
+        <c:axId val="102188160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55122944"/>
+        <c:axId val="102173696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,14 +2359,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55133312"/>
+        <c:crossAx val="102188160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55133312"/>
+        <c:axId val="102188160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1369,7 +2402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55122944"/>
+        <c:crossAx val="102173696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,7 +2424,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2033,11 +3066,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="55176192"/>
-        <c:axId val="54203520"/>
+        <c:axId val="102214656"/>
+        <c:axId val="102225024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55176192"/>
+        <c:axId val="102214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,14 +3095,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54203520"/>
+        <c:crossAx val="102225024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54203520"/>
+        <c:axId val="102225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2105,7 +3138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55176192"/>
+        <c:crossAx val="102214656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2127,7 +3160,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2158,6 +3191,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2471,11 +3505,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="54237056"/>
-        <c:axId val="54251520"/>
+        <c:axId val="102152064"/>
+        <c:axId val="102162432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54237056"/>
+        <c:axId val="102152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,17 +3530,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54251520"/>
+        <c:crossAx val="102162432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54251520"/>
+        <c:axId val="102162432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2530,22 +3565,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54237056"/>
+        <c:crossAx val="102152064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2571,6 +3608,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2878,11 +3916,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="55220096"/>
-        <c:axId val="55230464"/>
+        <c:axId val="102266752"/>
+        <c:axId val="102273024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55220096"/>
+        <c:axId val="102266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,17 +3941,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55230464"/>
+        <c:crossAx val="102273024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55230464"/>
+        <c:axId val="102273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -2937,22 +3976,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55220096"/>
+        <c:crossAx val="102266752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3315,11 +4356,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="55248768"/>
-        <c:axId val="55263232"/>
+        <c:axId val="102307712"/>
+        <c:axId val="102313984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55248768"/>
+        <c:axId val="102307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,14 +4384,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55263232"/>
+        <c:crossAx val="102313984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55263232"/>
+        <c:axId val="102313984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3377,7 +4418,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55248768"/>
+        <c:crossAx val="102307712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,7 +4430,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3419,6 +4460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -3428,7 +4470,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.5959795221013931E-2"/>
           <c:y val="0.11921771683301492"/>
-          <c:w val="0.80104579119399155"/>
+          <c:w val="0.80104579119399177"/>
           <c:h val="0.78436005023181621"/>
         </c:manualLayout>
       </c:layout>
@@ -4150,11 +5192,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="55419264"/>
-        <c:axId val="55421184"/>
+        <c:axId val="102474112"/>
+        <c:axId val="102476032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55419264"/>
+        <c:axId val="102474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,18 +5222,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55421184"/>
+        <c:crossAx val="102476032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55421184"/>
+        <c:axId val="102476032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4215,16 +5258,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55419264"/>
+        <c:crossAx val="102474112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4240,7 +5285,1831 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0027862822734422E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.80119220559231696"/>
+          <c:h val="0.82335111336889377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97915210099150296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83679423804779496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81104671470788803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80401833373359599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80612977580758205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80510529475216297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79846107276515799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79811253345101696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80552506892768605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80076071900587997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79744666081371895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80173782004894401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79864098582969301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80721746139136896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80050502435323501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79990613136269895</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80650773492328998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79982243529602504</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79865361068059004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.80084170910587305</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79687505775325795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79952460911582701</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79872268382373102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.799342838633185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.806334220763397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80285196257574198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80073212484996403</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80096295569462805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80183759578468305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79743054235975697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79648464127498997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.79952262486773196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80192690442766501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.79992795982536902</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80599176735850198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80418876504100001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79594504992377502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.79945327159312196</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80019636646733905</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80205648501469895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79752678747139505</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80002314825557397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79724983028782004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79940787766725996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.799598936020675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98336422915067101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87426754670574902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83700969715432105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82094289477101701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80939618679087999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80567984136127202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80485612215498803</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80180197011795395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79977881284465002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80184204987758101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80356208419821096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80134471152361997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79798698646738297</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79835273635026804</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80239806717365103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79956749329505905</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80713239819189997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79924895593618706</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79975063556477299</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79730226128332404</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79812348454966497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79809529544111002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.80323758551711399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80946007417952004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.80445971801149296</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80322333259216006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79887843854706497</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80333258152848896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80198460158858098</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79641194041026897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.79911885086190804</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80134200538247002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80286131760470603</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.79985720588856501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80391301298252604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80273009026778797</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80086454757016401</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80023615043287399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79919674272593499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79787828305726505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79813268703941898</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79742455784891497</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79947440686714399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.80215733619690199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.80894326741141998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$L$2:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98899742671863999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91386594635649898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87526085182839197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85113709690418404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83140771806990099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81941435352722902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81826976324253198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81325334167749497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80698806726641603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80010779143823696</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79992396252210096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80823070276078202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80265821235880097</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80050258102008298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79959274580375295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.80726430252703996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.79723363783344703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.802615290769775</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80302339314655602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.80237399544395505</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.80256694169902598</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.80034727543610495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79962499900683104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80895767643378602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81059455138890002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80105807132974105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.804451867593871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80352904441991202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80430528729704398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.79985763926726205</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.80088412430882605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80567462974484005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80527612288523398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80364496834424604</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.800130741591081</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.802373100119806</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79870173468351102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.79781374799367699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79926374372729403</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80082651494470103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.799718947705089</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79789339581198404</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79908293659688001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79941632179010302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.80604154203670397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$2:$Q$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99389618940425395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95541092646208703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92646065009136802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91002831245784599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89980337525467802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88531481192143002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86797784690445201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86430683532196595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85824605785670105</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85158655201863298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83881087634601104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84218551685234999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84512764497936199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83847335566833303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82826774758095001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82568655340817898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82226711133110997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81782741798419401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82165182345652399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.82144233245194598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.82026024387163199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.81203909167487998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.81141203961660602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.81431218846694098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.81317885740099405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.81352949770938199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.81217469759798799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.80966727593050003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.81234451696779997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81400896916630605</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.80893816620481196</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80854081277644196</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.81574412875576097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.82593906042163401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.82867033741409601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.81705760568047403</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80408113262146796</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80076521019525004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.80028060100168297</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80066562548881404</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.80126524187268</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80064969057184299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.80047012720280497</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.80043722175384102</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.80899710892743304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dropLines/>
+        <c:marker val="1"/>
+        <c:axId val="102407168"/>
+        <c:axId val="102421632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102407168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47562255395467617"/>
+              <c:y val="0.93634544069088166"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102421632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102421632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75000000000000022"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Trust in availability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102407168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Number of requests dispatched to a faulty provider</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$2:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="102605568"/>
+        <c:axId val="102607104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102605568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102607104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102607104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102605568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4458,6 +7327,166 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>39499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21387</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4786,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13737,7 +16766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -17432,8 +20461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20422,5 +23451,4274 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>0.9476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.9476</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>0.9476</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>113.64406779661</v>
+      </c>
+      <c r="E3">
+        <v>82.291894604534406</v>
+      </c>
+      <c r="F3">
+        <v>94.6932493273723</v>
+      </c>
+      <c r="G3">
+        <v>74.877033571786001</v>
+      </c>
+      <c r="H3">
+        <v>89.950233637771902</v>
+      </c>
+      <c r="J3">
+        <v>0.9476</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>106</v>
+      </c>
+      <c r="N3">
+        <v>82.291894604534406</v>
+      </c>
+      <c r="P3">
+        <v>74.877033571786001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>97.048630825867804</v>
+      </c>
+      <c r="F4">
+        <v>94.56</v>
+      </c>
+      <c r="G4">
+        <v>91.148773753208204</v>
+      </c>
+      <c r="H4">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>0.9476</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>140</v>
+      </c>
+      <c r="N4">
+        <v>97.048630825867804</v>
+      </c>
+      <c r="P4">
+        <v>91.148773753208204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>146</v>
+      </c>
+      <c r="D5">
+        <v>113.706896551724</v>
+      </c>
+      <c r="E5">
+        <v>85.822117273015905</v>
+      </c>
+      <c r="F5">
+        <v>94.6743541087734</v>
+      </c>
+      <c r="G5">
+        <v>75.153641379865405</v>
+      </c>
+      <c r="H5">
+        <v>90.219371619606704</v>
+      </c>
+      <c r="J5">
+        <v>0.9476</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>146</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>85.822117273015905</v>
+      </c>
+      <c r="O5">
+        <v>82.740390072387299</v>
+      </c>
+      <c r="P5">
+        <v>75.153641379865405</v>
+      </c>
+      <c r="Q5">
+        <v>76.625105324896495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>95.560054781188796</v>
+      </c>
+      <c r="F6">
+        <v>94.56</v>
+      </c>
+      <c r="G6">
+        <v>98.994379242665502</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="J6">
+        <v>0.9476</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>134</v>
+      </c>
+      <c r="N6">
+        <v>95.560054781188796</v>
+      </c>
+      <c r="P6">
+        <v>98.994379242665502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>113.771929824561</v>
+      </c>
+      <c r="E7">
+        <v>98.674104314774496</v>
+      </c>
+      <c r="F7">
+        <v>94.372557624597704</v>
+      </c>
+      <c r="G7">
+        <v>82.9199901954388</v>
+      </c>
+      <c r="H7">
+        <v>89.7737177081341</v>
+      </c>
+      <c r="J7">
+        <v>0.9476</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>145</v>
+      </c>
+      <c r="N7">
+        <v>98.674104314774496</v>
+      </c>
+      <c r="P7">
+        <v>82.9199901954388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>113.771929824561</v>
+      </c>
+      <c r="E8">
+        <v>87.132234655528194</v>
+      </c>
+      <c r="F8">
+        <v>94.168215748039003</v>
+      </c>
+      <c r="G8">
+        <v>90.053415508498105</v>
+      </c>
+      <c r="H8">
+        <v>89.471423316384801</v>
+      </c>
+      <c r="J8">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>108</v>
+      </c>
+      <c r="N8">
+        <v>87.132234655528194</v>
+      </c>
+      <c r="P8">
+        <v>90.053415508498105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>113.839285714285</v>
+      </c>
+      <c r="E9">
+        <v>94.054967903669805</v>
+      </c>
+      <c r="F9">
+        <v>94.470723181578705</v>
+      </c>
+      <c r="G9">
+        <v>84.214230041656805</v>
+      </c>
+      <c r="H9">
+        <v>90.069807891077105</v>
+      </c>
+      <c r="J9">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>119</v>
+      </c>
+      <c r="M9">
+        <v>110</v>
+      </c>
+      <c r="N9">
+        <v>94.054967903669805</v>
+      </c>
+      <c r="O9">
+        <v>75.596990180809797</v>
+      </c>
+      <c r="P9">
+        <v>84.214230041656805</v>
+      </c>
+      <c r="Q9">
+        <v>74.238683110422997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>144</v>
+      </c>
+      <c r="D10">
+        <v>113.90909090909</v>
+      </c>
+      <c r="E10">
+        <v>92.562176929540001</v>
+      </c>
+      <c r="F10">
+        <v>94.8903012183426</v>
+      </c>
+      <c r="G10">
+        <v>81.547494831831997</v>
+      </c>
+      <c r="H10">
+        <v>89.826192867050295</v>
+      </c>
+      <c r="J10">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>144</v>
+      </c>
+      <c r="M10">
+        <v>110</v>
+      </c>
+      <c r="N10">
+        <v>92.562176929540001</v>
+      </c>
+      <c r="O10">
+        <v>80.397193631098006</v>
+      </c>
+      <c r="P10">
+        <v>81.547494831831997</v>
+      </c>
+      <c r="Q10">
+        <v>75.254188371295101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>113.90909090909</v>
+      </c>
+      <c r="E11">
+        <v>88.9480904714746</v>
+      </c>
+      <c r="F11">
+        <v>94.898844317368201</v>
+      </c>
+      <c r="G11">
+        <v>80.548932538549593</v>
+      </c>
+      <c r="H11">
+        <v>89.919242426584603</v>
+      </c>
+      <c r="J11">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>118</v>
+      </c>
+      <c r="M11">
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <v>88.9480904714746</v>
+      </c>
+      <c r="O11">
+        <v>78.634710440091496</v>
+      </c>
+      <c r="P11">
+        <v>80.548932538549593</v>
+      </c>
+      <c r="Q11">
+        <v>76.753108830441704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>146</v>
+      </c>
+      <c r="D12">
+        <v>113.90909090909</v>
+      </c>
+      <c r="E12">
+        <v>89.522351405912005</v>
+      </c>
+      <c r="F12">
+        <v>94.297043907649893</v>
+      </c>
+      <c r="G12">
+        <v>78.675278975635806</v>
+      </c>
+      <c r="H12">
+        <v>89.311388524322496</v>
+      </c>
+      <c r="J12">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>146</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12">
+        <v>89.522351405912005</v>
+      </c>
+      <c r="O12">
+        <v>81.367073845482196</v>
+      </c>
+      <c r="P12">
+        <v>78.675278975635806</v>
+      </c>
+      <c r="Q12">
+        <v>76.936787399107104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>113.90909090909</v>
+      </c>
+      <c r="E13">
+        <v>82.016563036154494</v>
+      </c>
+      <c r="F13">
+        <v>94.927300181036202</v>
+      </c>
+      <c r="G13">
+        <v>89.615465537068701</v>
+      </c>
+      <c r="H13">
+        <v>90.585978751259304</v>
+      </c>
+      <c r="J13">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>113</v>
+      </c>
+      <c r="M13">
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <v>82.016563036154494</v>
+      </c>
+      <c r="O13">
+        <v>80.457254688769694</v>
+      </c>
+      <c r="P13">
+        <v>89.615465537068701</v>
+      </c>
+      <c r="Q13">
+        <v>71.658512264056895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>114.056603773584</v>
+      </c>
+      <c r="E14">
+        <v>83.193248350281493</v>
+      </c>
+      <c r="F14">
+        <v>94.297820822191696</v>
+      </c>
+      <c r="G14">
+        <v>73.032435337396507</v>
+      </c>
+      <c r="H14">
+        <v>90.251844564647698</v>
+      </c>
+      <c r="J14">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>105</v>
+      </c>
+      <c r="N14">
+        <v>83.193248350281493</v>
+      </c>
+      <c r="P14">
+        <v>73.032435337396507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>114.215686274509</v>
+      </c>
+      <c r="E15">
+        <v>80.958236198971804</v>
+      </c>
+      <c r="F15">
+        <v>93.841939437622798</v>
+      </c>
+      <c r="G15">
+        <v>82.919603284189293</v>
+      </c>
+      <c r="H15">
+        <v>89.739752845928905</v>
+      </c>
+      <c r="J15">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>140</v>
+      </c>
+      <c r="M15">
+        <v>110</v>
+      </c>
+      <c r="N15">
+        <v>80.958236198971804</v>
+      </c>
+      <c r="O15">
+        <v>76.5248677370178</v>
+      </c>
+      <c r="P15">
+        <v>82.919603284189293</v>
+      </c>
+      <c r="Q15">
+        <v>77.363213686904501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>114.215686274509</v>
+      </c>
+      <c r="E16">
+        <v>88.445849291894405</v>
+      </c>
+      <c r="F16">
+        <v>93.797742359363298</v>
+      </c>
+      <c r="G16">
+        <v>80.079225528709699</v>
+      </c>
+      <c r="H16">
+        <v>90.561025372902904</v>
+      </c>
+      <c r="J16">
+        <v>0.66208235294117601</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>88.445849291894405</v>
+      </c>
+      <c r="O16">
+        <v>78.037048784669096</v>
+      </c>
+      <c r="P16">
+        <v>80.079225528709699</v>
+      </c>
+      <c r="Q16">
+        <v>73.867970195856898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>0.71686499999999997</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <v>114.38775510204</v>
+      </c>
+      <c r="E17">
+        <v>98.589854542551507</v>
+      </c>
+      <c r="F17">
+        <v>94.470800250612101</v>
+      </c>
+      <c r="G17">
+        <v>71.104710551391094</v>
+      </c>
+      <c r="H17">
+        <v>90.151489813137601</v>
+      </c>
+      <c r="J17">
+        <v>0.57094444444444403</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>119</v>
+      </c>
+      <c r="N17">
+        <v>98.589854542551507</v>
+      </c>
+      <c r="P17">
+        <v>71.104710551391094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>0.947599999999999</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>85.120655424333904</v>
+      </c>
+      <c r="F18">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G18">
+        <v>88.492499631830299</v>
+      </c>
+      <c r="H18">
+        <v>91</v>
+      </c>
+      <c r="J18">
+        <v>0.55202777777777701</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>124</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>85.120655424333904</v>
+      </c>
+      <c r="O18">
+        <v>76.276888745002296</v>
+      </c>
+      <c r="P18">
+        <v>88.492499631830299</v>
+      </c>
+      <c r="Q18">
+        <v>73.578277297300403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>0.9476</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>149</v>
+      </c>
+      <c r="D19">
+        <v>114.886363636363</v>
+      </c>
+      <c r="E19">
+        <v>85.897518053257699</v>
+      </c>
+      <c r="F19">
+        <v>93.5002209263411</v>
+      </c>
+      <c r="G19">
+        <v>80.638150509202902</v>
+      </c>
+      <c r="H19">
+        <v>90.145471721438795</v>
+      </c>
+      <c r="J19">
+        <v>0.56861052631578901</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>149</v>
+      </c>
+      <c r="M19">
+        <v>110</v>
+      </c>
+      <c r="N19">
+        <v>85.897518053257699</v>
+      </c>
+      <c r="O19">
+        <v>81.917211177430801</v>
+      </c>
+      <c r="P19">
+        <v>80.638150509202902</v>
+      </c>
+      <c r="Q19">
+        <v>74.332370771075603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>0.93376666666666597</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>127</v>
+      </c>
+      <c r="D20">
+        <v>114.886363636363</v>
+      </c>
+      <c r="E20">
+        <v>85.510130255548205</v>
+      </c>
+      <c r="F20">
+        <v>93.994371288471896</v>
+      </c>
+      <c r="G20">
+        <v>81.542834289401995</v>
+      </c>
+      <c r="H20">
+        <v>90.534617920464996</v>
+      </c>
+      <c r="J20">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>127</v>
+      </c>
+      <c r="M20">
+        <v>110</v>
+      </c>
+      <c r="N20">
+        <v>85.510130255548205</v>
+      </c>
+      <c r="O20">
+        <v>80.157445817911807</v>
+      </c>
+      <c r="P20">
+        <v>81.542834289401995</v>
+      </c>
+      <c r="Q20">
+        <v>70.278045995287997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>0.9476</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>114</v>
+      </c>
+      <c r="D21">
+        <v>114.886363636363</v>
+      </c>
+      <c r="E21">
+        <v>87.714477554510296</v>
+      </c>
+      <c r="F21">
+        <v>93.803470739069397</v>
+      </c>
+      <c r="G21">
+        <v>89.095732415009905</v>
+      </c>
+      <c r="H21">
+        <v>90.841210865612695</v>
+      </c>
+      <c r="J21">
+        <v>0.54063157894736802</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>114</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>87.714477554510296</v>
+      </c>
+      <c r="O21">
+        <v>80.235715261470403</v>
+      </c>
+      <c r="P21">
+        <v>89.095732415009905</v>
+      </c>
+      <c r="Q21">
+        <v>74.038643025193196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>0.9476</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>147</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>87.327095398752604</v>
+      </c>
+      <c r="F22">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G22">
+        <v>95.628633628000998</v>
+      </c>
+      <c r="H22">
+        <v>91</v>
+      </c>
+      <c r="J22">
+        <v>0.56203181818181802</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>147</v>
+      </c>
+      <c r="N22">
+        <v>87.327095398752604</v>
+      </c>
+      <c r="P22">
+        <v>95.628633628000998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>0.93779687499999997</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>115</v>
+      </c>
+      <c r="E23">
+        <v>84.475512979217001</v>
+      </c>
+      <c r="F23">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G23">
+        <v>73.001400039706098</v>
+      </c>
+      <c r="H23">
+        <v>91</v>
+      </c>
+      <c r="J23">
+        <v>0.55720434782608697</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>121</v>
+      </c>
+      <c r="M23">
+        <v>110</v>
+      </c>
+      <c r="N23">
+        <v>84.475512979217001</v>
+      </c>
+      <c r="O23">
+        <v>83.472848750275901</v>
+      </c>
+      <c r="P23">
+        <v>73.001400039706098</v>
+      </c>
+      <c r="Q23">
+        <v>72.333306750019801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>0.9476</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>105</v>
+      </c>
+      <c r="D24">
+        <v>114.87804878048701</v>
+      </c>
+      <c r="E24">
+        <v>93.376760324211403</v>
+      </c>
+      <c r="F24">
+        <v>93.282220799555802</v>
+      </c>
+      <c r="G24">
+        <v>70.139527333029903</v>
+      </c>
+      <c r="H24">
+        <v>90.266579250477207</v>
+      </c>
+      <c r="J24">
+        <v>0.56542499999999996</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="L24">
+        <v>105</v>
+      </c>
+      <c r="N24">
+        <v>93.376760324211403</v>
+      </c>
+      <c r="P24">
+        <v>70.139527333029903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>0.9476</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>148</v>
+      </c>
+      <c r="D25">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>87.572608125530905</v>
+      </c>
+      <c r="F25">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G25">
+        <v>79.273339401111699</v>
+      </c>
+      <c r="H25">
+        <v>91</v>
+      </c>
+      <c r="J25">
+        <v>0.55774800000000002</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>148</v>
+      </c>
+      <c r="M25">
+        <v>110</v>
+      </c>
+      <c r="N25">
+        <v>87.572608125530905</v>
+      </c>
+      <c r="O25">
+        <v>78.103180771404496</v>
+      </c>
+      <c r="P25">
+        <v>79.273339401111699</v>
+      </c>
+      <c r="Q25">
+        <v>75.692138368707305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>0.9476</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>143</v>
+      </c>
+      <c r="D26">
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>98.075658006137303</v>
+      </c>
+      <c r="F26">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G26">
+        <v>94.396547430339496</v>
+      </c>
+      <c r="H26">
+        <v>91</v>
+      </c>
+      <c r="J26">
+        <v>0.55669199999999996</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>143</v>
+      </c>
+      <c r="N26">
+        <v>98.075658006137303</v>
+      </c>
+      <c r="P26">
+        <v>94.396547430339496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>0.9476</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>118</v>
+      </c>
+      <c r="D27">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>97.833398909536498</v>
+      </c>
+      <c r="F27">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G27">
+        <v>83.681673604104503</v>
+      </c>
+      <c r="H27">
+        <v>91</v>
+      </c>
+      <c r="J27">
+        <v>0.55239199999999999</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>118</v>
+      </c>
+      <c r="N27">
+        <v>97.833398909536498</v>
+      </c>
+      <c r="P27">
+        <v>83.681673604104503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>0.9476</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>115</v>
+      </c>
+      <c r="E28">
+        <v>90.782439062195905</v>
+      </c>
+      <c r="F28">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G28">
+        <v>73.640312858420799</v>
+      </c>
+      <c r="H28">
+        <v>91</v>
+      </c>
+      <c r="J28">
+        <v>0.55921200000000004</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+      <c r="L28">
+        <v>138</v>
+      </c>
+      <c r="M28">
+        <v>110</v>
+      </c>
+      <c r="N28">
+        <v>90.782439062195905</v>
+      </c>
+      <c r="O28">
+        <v>79.9276498147008</v>
+      </c>
+      <c r="P28">
+        <v>73.640312858420799</v>
+      </c>
+      <c r="Q28">
+        <v>71.993157245371094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>0.9476</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>141</v>
+      </c>
+      <c r="D29">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>95.871820823861199</v>
+      </c>
+      <c r="F29">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G29">
+        <v>74.364826763342293</v>
+      </c>
+      <c r="H29">
+        <v>91</v>
+      </c>
+      <c r="J29">
+        <v>0.55231153846153802</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>141</v>
+      </c>
+      <c r="M29">
+        <v>110</v>
+      </c>
+      <c r="N29">
+        <v>95.871820823861199</v>
+      </c>
+      <c r="O29">
+        <v>78.875956300392104</v>
+      </c>
+      <c r="P29">
+        <v>74.364826763342293</v>
+      </c>
+      <c r="Q29">
+        <v>73.578006038426395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>0.9476</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>112</v>
+      </c>
+      <c r="D30">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>91.672612253531597</v>
+      </c>
+      <c r="F30">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G30">
+        <v>92.995941822956198</v>
+      </c>
+      <c r="H30">
+        <v>91</v>
+      </c>
+      <c r="J30">
+        <v>0.55537692307692299</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>112</v>
+      </c>
+      <c r="N30">
+        <v>91.672612253531597</v>
+      </c>
+      <c r="P30">
+        <v>92.995941822956198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>0.9476</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>113</v>
+      </c>
+      <c r="D31">
+        <v>115</v>
+      </c>
+      <c r="E31">
+        <v>88.680014780914107</v>
+      </c>
+      <c r="F31">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G31">
+        <v>92.619329518437496</v>
+      </c>
+      <c r="H31">
+        <v>91</v>
+      </c>
+      <c r="J31">
+        <v>0.55988148148148098</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>113</v>
+      </c>
+      <c r="N31">
+        <v>88.680014780914107</v>
+      </c>
+      <c r="P31">
+        <v>92.619329518437496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>0.9476</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>102</v>
+      </c>
+      <c r="D32">
+        <v>114.86842105263101</v>
+      </c>
+      <c r="E32">
+        <v>86.741835506596203</v>
+      </c>
+      <c r="F32">
+        <v>94.263791724582006</v>
+      </c>
+      <c r="G32">
+        <v>71.612019893511402</v>
+      </c>
+      <c r="H32">
+        <v>89.960873749838896</v>
+      </c>
+      <c r="J32">
+        <v>0.547589285714285</v>
+      </c>
+      <c r="K32">
+        <v>32</v>
+      </c>
+      <c r="L32">
+        <v>102</v>
+      </c>
+      <c r="N32">
+        <v>86.741835506596203</v>
+      </c>
+      <c r="P32">
+        <v>71.612019893511402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>0.9476</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>133</v>
+      </c>
+      <c r="D33">
+        <v>115</v>
+      </c>
+      <c r="E33">
+        <v>96.890446625753697</v>
+      </c>
+      <c r="F33">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G33">
+        <v>86.933298745520403</v>
+      </c>
+      <c r="H33">
+        <v>91</v>
+      </c>
+      <c r="J33">
+        <v>0.55143928571428502</v>
+      </c>
+      <c r="K33">
+        <v>33</v>
+      </c>
+      <c r="L33">
+        <v>133</v>
+      </c>
+      <c r="M33">
+        <v>110</v>
+      </c>
+      <c r="N33">
+        <v>96.890446625753697</v>
+      </c>
+      <c r="O33">
+        <v>80.956472796608097</v>
+      </c>
+      <c r="P33">
+        <v>86.933298745520403</v>
+      </c>
+      <c r="Q33">
+        <v>75.006110499615204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>0.9476</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>85.193266063151299</v>
+      </c>
+      <c r="F34">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G34">
+        <v>77.857908509615896</v>
+      </c>
+      <c r="H34">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>0.54795357142857104</v>
+      </c>
+      <c r="K34">
+        <v>34</v>
+      </c>
+      <c r="L34">
+        <v>146</v>
+      </c>
+      <c r="M34">
+        <v>110</v>
+      </c>
+      <c r="N34">
+        <v>85.193266063151299</v>
+      </c>
+      <c r="O34">
+        <v>76.165219706543695</v>
+      </c>
+      <c r="P34">
+        <v>77.857908509615896</v>
+      </c>
+      <c r="Q34">
+        <v>71.233856684940804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>0.9476</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>115</v>
+      </c>
+      <c r="E35">
+        <v>87.574869535800801</v>
+      </c>
+      <c r="F35">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G35">
+        <v>83.931694615741804</v>
+      </c>
+      <c r="H35">
+        <v>91</v>
+      </c>
+      <c r="J35">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>111</v>
+      </c>
+      <c r="M35">
+        <v>110</v>
+      </c>
+      <c r="N35">
+        <v>87.574869535800801</v>
+      </c>
+      <c r="O35">
+        <v>76.358107255614399</v>
+      </c>
+      <c r="P35">
+        <v>83.931694615741804</v>
+      </c>
+      <c r="Q35">
+        <v>73.382213235222807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>0.9476</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>119</v>
+      </c>
+      <c r="D36">
+        <v>115</v>
+      </c>
+      <c r="E36">
+        <v>91.603251526006005</v>
+      </c>
+      <c r="F36">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G36">
+        <v>94.413097747972103</v>
+      </c>
+      <c r="H36">
+        <v>91</v>
+      </c>
+      <c r="J36">
+        <v>0.56028928571428505</v>
+      </c>
+      <c r="K36">
+        <v>36</v>
+      </c>
+      <c r="L36">
+        <v>119</v>
+      </c>
+      <c r="N36">
+        <v>91.603251526006005</v>
+      </c>
+      <c r="P36">
+        <v>94.413097747972103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>0.9476</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>115</v>
+      </c>
+      <c r="E37">
+        <v>82.740614272441405</v>
+      </c>
+      <c r="F37">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G37">
+        <v>96.701943717638798</v>
+      </c>
+      <c r="H37">
+        <v>91</v>
+      </c>
+      <c r="J37">
+        <v>0.54567241379310305</v>
+      </c>
+      <c r="K37">
+        <v>37</v>
+      </c>
+      <c r="L37">
+        <v>120</v>
+      </c>
+      <c r="N37">
+        <v>82.740614272441405</v>
+      </c>
+      <c r="P37">
+        <v>96.701943717638798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>0.9476</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>124</v>
+      </c>
+      <c r="D38">
+        <v>115</v>
+      </c>
+      <c r="E38">
+        <v>81.190991860893604</v>
+      </c>
+      <c r="F38">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G38">
+        <v>78.633983788837796</v>
+      </c>
+      <c r="H38">
+        <v>91</v>
+      </c>
+      <c r="J38">
+        <v>0.56304374999999995</v>
+      </c>
+      <c r="K38">
+        <v>38</v>
+      </c>
+      <c r="L38">
+        <v>124</v>
+      </c>
+      <c r="M38">
+        <v>110</v>
+      </c>
+      <c r="N38">
+        <v>81.190991860893604</v>
+      </c>
+      <c r="O38">
+        <v>82.158901607039397</v>
+      </c>
+      <c r="P38">
+        <v>78.633983788837796</v>
+      </c>
+      <c r="Q38">
+        <v>69.831722657295003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>0.94249818181818201</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>127</v>
+      </c>
+      <c r="D39">
+        <v>115</v>
+      </c>
+      <c r="E39">
+        <v>92.763695104146194</v>
+      </c>
+      <c r="F39">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G39">
+        <v>98.864647053830794</v>
+      </c>
+      <c r="H39">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>0.54761875000000004</v>
+      </c>
+      <c r="K39">
+        <v>39</v>
+      </c>
+      <c r="L39">
+        <v>127</v>
+      </c>
+      <c r="N39">
+        <v>92.763695104146194</v>
+      </c>
+      <c r="P39">
+        <v>98.864647053830794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>0.93510499999999996</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>146</v>
+      </c>
+      <c r="D40">
+        <v>115</v>
+      </c>
+      <c r="E40">
+        <v>86.862462710879996</v>
+      </c>
+      <c r="F40">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G40">
+        <v>74.774869555371595</v>
+      </c>
+      <c r="H40">
+        <v>91</v>
+      </c>
+      <c r="J40">
+        <v>0.55443636363636295</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+      <c r="L40">
+        <v>146</v>
+      </c>
+      <c r="M40">
+        <v>110</v>
+      </c>
+      <c r="N40">
+        <v>86.862462710879996</v>
+      </c>
+      <c r="O40">
+        <v>79.925439078843695</v>
+      </c>
+      <c r="P40">
+        <v>74.774869555371595</v>
+      </c>
+      <c r="Q40">
+        <v>73.720501071898298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <v>0.929095</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>119</v>
+      </c>
+      <c r="D41">
+        <v>115</v>
+      </c>
+      <c r="E41">
+        <v>88.346850146347194</v>
+      </c>
+      <c r="F41">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G41">
+        <v>87.5935184431316</v>
+      </c>
+      <c r="H41">
+        <v>91</v>
+      </c>
+      <c r="J41">
+        <v>0.55487352941176404</v>
+      </c>
+      <c r="K41">
+        <v>41</v>
+      </c>
+      <c r="L41">
+        <v>119</v>
+      </c>
+      <c r="M41">
+        <v>110</v>
+      </c>
+      <c r="N41">
+        <v>88.346850146347194</v>
+      </c>
+      <c r="O41">
+        <v>75.713082031262999</v>
+      </c>
+      <c r="P41">
+        <v>87.5935184431316</v>
+      </c>
+      <c r="Q41">
+        <v>74.697856991854707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>0.93594687499999996</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <v>92.790849591025307</v>
+      </c>
+      <c r="F42">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G42">
+        <v>79.434556644597095</v>
+      </c>
+      <c r="H42">
+        <v>91</v>
+      </c>
+      <c r="J42">
+        <v>0.56285277777777698</v>
+      </c>
+      <c r="K42">
+        <v>42</v>
+      </c>
+      <c r="L42">
+        <v>110</v>
+      </c>
+      <c r="M42">
+        <v>110</v>
+      </c>
+      <c r="N42">
+        <v>92.790849591025307</v>
+      </c>
+      <c r="O42">
+        <v>81.064859221679995</v>
+      </c>
+      <c r="P42">
+        <v>79.434556644597095</v>
+      </c>
+      <c r="Q42">
+        <v>70.532254153134502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>0.93543134328358302</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>105</v>
+      </c>
+      <c r="D43">
+        <v>115</v>
+      </c>
+      <c r="E43">
+        <v>84.587640093692698</v>
+      </c>
+      <c r="F43">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G43">
+        <v>75.254073114993204</v>
+      </c>
+      <c r="H43">
+        <v>91</v>
+      </c>
+      <c r="J43">
+        <v>0.55775789473684201</v>
+      </c>
+      <c r="K43">
+        <v>43</v>
+      </c>
+      <c r="L43">
+        <v>105</v>
+      </c>
+      <c r="N43">
+        <v>84.587640093692698</v>
+      </c>
+      <c r="P43">
+        <v>75.254073114993204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>0.93580147058823604</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>120</v>
+      </c>
+      <c r="D44">
+        <v>115</v>
+      </c>
+      <c r="E44">
+        <v>89.347015249465699</v>
+      </c>
+      <c r="F44">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G44">
+        <v>91.490964305621304</v>
+      </c>
+      <c r="H44">
+        <v>91</v>
+      </c>
+      <c r="J44">
+        <v>0.54534736842105203</v>
+      </c>
+      <c r="K44">
+        <v>44</v>
+      </c>
+      <c r="L44">
+        <v>120</v>
+      </c>
+      <c r="N44">
+        <v>89.347015249465699</v>
+      </c>
+      <c r="P44">
+        <v>91.490964305621304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>0.93634225352112699</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>139</v>
+      </c>
+      <c r="D45">
+        <v>115</v>
+      </c>
+      <c r="E45">
+        <v>91.602582440931997</v>
+      </c>
+      <c r="F45">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G45">
+        <v>86.7157721963342</v>
+      </c>
+      <c r="H45">
+        <v>91</v>
+      </c>
+      <c r="J45">
+        <v>0.54942250000000004</v>
+      </c>
+      <c r="K45">
+        <v>45</v>
+      </c>
+      <c r="L45">
+        <v>139</v>
+      </c>
+      <c r="M45">
+        <v>110</v>
+      </c>
+      <c r="N45">
+        <v>91.602582440931997</v>
+      </c>
+      <c r="O45">
+        <v>81.713669862703895</v>
+      </c>
+      <c r="P45">
+        <v>86.7157721963342</v>
+      </c>
+      <c r="Q45">
+        <v>69.118820413882005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>0.93673972602739697</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>115</v>
+      </c>
+      <c r="E46">
+        <v>80.203525659086395</v>
+      </c>
+      <c r="F46">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G46">
+        <v>72.024386941989604</v>
+      </c>
+      <c r="H46">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>0.56069523809523802</v>
+      </c>
+      <c r="K46">
+        <v>46</v>
+      </c>
+      <c r="L46">
+        <v>134</v>
+      </c>
+      <c r="M46">
+        <v>110</v>
+      </c>
+      <c r="N46">
+        <v>80.203525659086395</v>
+      </c>
+      <c r="O46">
+        <v>80.425806916714393</v>
+      </c>
+      <c r="P46">
+        <v>72.024386941989604</v>
+      </c>
+      <c r="Q46">
+        <v>75.846229723587797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>0.93657402597402595</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>115</v>
+      </c>
+      <c r="E47">
+        <v>80.227228245649798</v>
+      </c>
+      <c r="F47">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G47">
+        <v>92.920751347553207</v>
+      </c>
+      <c r="H47">
+        <v>91</v>
+      </c>
+      <c r="J47">
+        <v>0.56615227272727198</v>
+      </c>
+      <c r="K47">
+        <v>47</v>
+      </c>
+      <c r="L47">
+        <v>104</v>
+      </c>
+      <c r="N47">
+        <v>80.227228245649798</v>
+      </c>
+      <c r="P47">
+        <v>92.920751347553207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>0.93816582278480998</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>101</v>
+      </c>
+      <c r="D48">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>91.974453322295801</v>
+      </c>
+      <c r="F48">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G48">
+        <v>90.274088520072496</v>
+      </c>
+      <c r="H48">
+        <v>91</v>
+      </c>
+      <c r="J48">
+        <v>0.55425777777777696</v>
+      </c>
+      <c r="K48">
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <v>101</v>
+      </c>
+      <c r="N48">
+        <v>91.974453322295801</v>
+      </c>
+      <c r="P48">
+        <v>90.274088520072496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>0.93801499999999904</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>144</v>
+      </c>
+      <c r="D49">
+        <v>115</v>
+      </c>
+      <c r="E49">
+        <v>82.831010247272602</v>
+      </c>
+      <c r="F49">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G49">
+        <v>87.494391673902001</v>
+      </c>
+      <c r="H49">
+        <v>91</v>
+      </c>
+      <c r="J49">
+        <v>0.54842666666666595</v>
+      </c>
+      <c r="K49">
+        <v>49</v>
+      </c>
+      <c r="L49">
+        <v>144</v>
+      </c>
+      <c r="M49">
+        <v>110</v>
+      </c>
+      <c r="N49">
+        <v>82.831010247272602</v>
+      </c>
+      <c r="O49">
+        <v>81.007076253961998</v>
+      </c>
+      <c r="P49">
+        <v>87.494391673902001</v>
+      </c>
+      <c r="Q49">
+        <v>72.075685712663102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>0.93834146341463398</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>119</v>
+      </c>
+      <c r="D50">
+        <v>115</v>
+      </c>
+      <c r="E50">
+        <v>92.695891692328004</v>
+      </c>
+      <c r="F50">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G50">
+        <v>94.303817948963996</v>
+      </c>
+      <c r="H50">
+        <v>91</v>
+      </c>
+      <c r="J50">
+        <v>0.55267608695652104</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>119</v>
+      </c>
+      <c r="N50">
+        <v>92.695891692328004</v>
+      </c>
+      <c r="P50">
+        <v>94.303817948963996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>0.93354285714285601</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+      <c r="D51">
+        <v>115</v>
+      </c>
+      <c r="E51">
+        <v>92.002599382805101</v>
+      </c>
+      <c r="F51">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G51">
+        <v>80.578906935011005</v>
+      </c>
+      <c r="H51">
+        <v>91</v>
+      </c>
+      <c r="J51">
+        <v>0.54397391304347797</v>
+      </c>
+      <c r="K51">
+        <v>51</v>
+      </c>
+      <c r="L51">
+        <v>112</v>
+      </c>
+      <c r="M51">
+        <v>110</v>
+      </c>
+      <c r="N51">
+        <v>92.002599382805101</v>
+      </c>
+      <c r="O51">
+        <v>77.250786921561001</v>
+      </c>
+      <c r="P51">
+        <v>80.578906935011005</v>
+      </c>
+      <c r="Q51">
+        <v>74.925036027880694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>0.93834588235294003</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>131</v>
+      </c>
+      <c r="D52">
+        <v>115</v>
+      </c>
+      <c r="E52">
+        <v>89.553820651110399</v>
+      </c>
+      <c r="F52">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G52">
+        <v>72.202383462224603</v>
+      </c>
+      <c r="H52">
+        <v>91</v>
+      </c>
+      <c r="J52">
+        <v>0.55087446808510598</v>
+      </c>
+      <c r="K52">
+        <v>52</v>
+      </c>
+      <c r="L52">
+        <v>131</v>
+      </c>
+      <c r="M52">
+        <v>110</v>
+      </c>
+      <c r="N52">
+        <v>89.553820651110399</v>
+      </c>
+      <c r="O52">
+        <v>71.624367394477105</v>
+      </c>
+      <c r="P52">
+        <v>72.202383462224603</v>
+      </c>
+      <c r="Q52">
+        <v>64.807010358970601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <v>0.93654659090908998</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>123</v>
+      </c>
+      <c r="D53">
+        <v>115</v>
+      </c>
+      <c r="E53">
+        <v>80.862425193969699</v>
+      </c>
+      <c r="F53">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G53">
+        <v>93.754774566200695</v>
+      </c>
+      <c r="H53">
+        <v>91</v>
+      </c>
+      <c r="J53">
+        <v>0.55149361702127597</v>
+      </c>
+      <c r="K53">
+        <v>53</v>
+      </c>
+      <c r="L53">
+        <v>123</v>
+      </c>
+      <c r="N53">
+        <v>80.862425193969699</v>
+      </c>
+      <c r="P53">
+        <v>93.754774566200695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <v>0.93873370786516697</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>115</v>
+      </c>
+      <c r="E54">
+        <v>96.914274629794207</v>
+      </c>
+      <c r="F54">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G54">
+        <v>80.227656113179293</v>
+      </c>
+      <c r="H54">
+        <v>91</v>
+      </c>
+      <c r="J54">
+        <v>0.55071914893617002</v>
+      </c>
+      <c r="K54">
+        <v>54</v>
+      </c>
+      <c r="L54">
+        <v>108</v>
+      </c>
+      <c r="N54">
+        <v>96.914274629794207</v>
+      </c>
+      <c r="P54">
+        <v>80.227656113179293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>0.93901999999999897</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <v>114.772727272727</v>
+      </c>
+      <c r="E55">
+        <v>85.422113880644702</v>
+      </c>
+      <c r="F55">
+        <v>93.293654569245206</v>
+      </c>
+      <c r="G55">
+        <v>77.433093761084294</v>
+      </c>
+      <c r="H55">
+        <v>90.542432123050801</v>
+      </c>
+      <c r="J55">
+        <v>0.55557872340425496</v>
+      </c>
+      <c r="K55">
+        <v>55</v>
+      </c>
+      <c r="L55">
+        <v>108</v>
+      </c>
+      <c r="N55">
+        <v>85.422113880644702</v>
+      </c>
+      <c r="P55">
+        <v>77.433093761084294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>0.93820967741935402</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>101</v>
+      </c>
+      <c r="D56">
+        <v>115</v>
+      </c>
+      <c r="E56">
+        <v>81.4490028262897</v>
+      </c>
+      <c r="F56">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G56">
+        <v>97.245301321343305</v>
+      </c>
+      <c r="H56">
+        <v>91</v>
+      </c>
+      <c r="J56">
+        <v>0.55430408163265199</v>
+      </c>
+      <c r="K56">
+        <v>56</v>
+      </c>
+      <c r="L56">
+        <v>101</v>
+      </c>
+      <c r="N56">
+        <v>81.4490028262897</v>
+      </c>
+      <c r="P56">
+        <v>97.245301321343305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57">
+        <v>0.93910531914893502</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>115</v>
+      </c>
+      <c r="E57">
+        <v>97.269173237855398</v>
+      </c>
+      <c r="F57">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G57">
+        <v>74.199406102455001</v>
+      </c>
+      <c r="H57">
+        <v>91</v>
+      </c>
+      <c r="J57">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="K57">
+        <v>57</v>
+      </c>
+      <c r="L57">
+        <v>124</v>
+      </c>
+      <c r="N57">
+        <v>97.269173237855398</v>
+      </c>
+      <c r="P57">
+        <v>74.199406102455001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>0.93980319148935998</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>110</v>
+      </c>
+      <c r="E58">
+        <v>94.628681466448597</v>
+      </c>
+      <c r="F58">
+        <v>79.042859611463697</v>
+      </c>
+      <c r="G58">
+        <v>77.851215102235301</v>
+      </c>
+      <c r="H58">
+        <v>70.380253671659105</v>
+      </c>
+      <c r="J58">
+        <v>0.54770600000000003</v>
+      </c>
+      <c r="K58">
+        <v>58</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="N58">
+        <v>94.628681466448597</v>
+      </c>
+      <c r="P58">
+        <v>77.851215102235301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>0.93907999999999903</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>117</v>
+      </c>
+      <c r="D59">
+        <v>114.52380952380901</v>
+      </c>
+      <c r="E59">
+        <v>89.111555238980799</v>
+      </c>
+      <c r="F59">
+        <v>93.659481861870304</v>
+      </c>
+      <c r="G59">
+        <v>93.860047129318005</v>
+      </c>
+      <c r="H59">
+        <v>89.563456478556105</v>
+      </c>
+      <c r="J59">
+        <v>0.54925000000000002</v>
+      </c>
+      <c r="K59">
+        <v>59</v>
+      </c>
+      <c r="L59">
+        <v>117</v>
+      </c>
+      <c r="N59">
+        <v>89.111555238980799</v>
+      </c>
+      <c r="P59">
+        <v>93.860047129318005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>106</v>
+      </c>
+      <c r="D60">
+        <v>110</v>
+      </c>
+      <c r="E60">
+        <v>95.087238288688397</v>
+      </c>
+      <c r="F60">
+        <v>80.312342885378996</v>
+      </c>
+      <c r="G60">
+        <v>79.562088313969895</v>
+      </c>
+      <c r="H60">
+        <v>70.959665649211004</v>
+      </c>
+      <c r="K60">
+        <v>60</v>
+      </c>
+      <c r="L60">
+        <v>106</v>
+      </c>
+      <c r="N60">
+        <v>95.087238288688397</v>
+      </c>
+      <c r="P60">
+        <v>79.562088313969895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>122</v>
+      </c>
+      <c r="D61">
+        <v>115</v>
+      </c>
+      <c r="E61">
+        <v>86.434462784696194</v>
+      </c>
+      <c r="F61">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G61">
+        <v>81.183415727617202</v>
+      </c>
+      <c r="H61">
+        <v>91</v>
+      </c>
+      <c r="K61">
+        <v>61</v>
+      </c>
+      <c r="L61">
+        <v>122</v>
+      </c>
+      <c r="M61">
+        <v>110</v>
+      </c>
+      <c r="N61">
+        <v>86.434462784696194</v>
+      </c>
+      <c r="O61">
+        <v>81.508948757560404</v>
+      </c>
+      <c r="P61">
+        <v>81.183415727617202</v>
+      </c>
+      <c r="Q61">
+        <v>71.055760090002195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>136</v>
+      </c>
+      <c r="D62">
+        <v>115</v>
+      </c>
+      <c r="E62">
+        <v>86.005526053100397</v>
+      </c>
+      <c r="F62">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G62">
+        <v>87.538919220367902</v>
+      </c>
+      <c r="H62">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>62</v>
+      </c>
+      <c r="L62">
+        <v>136</v>
+      </c>
+      <c r="M62">
+        <v>110</v>
+      </c>
+      <c r="N62">
+        <v>86.005526053100397</v>
+      </c>
+      <c r="O62">
+        <v>82.806947203224794</v>
+      </c>
+      <c r="P62">
+        <v>87.538919220367902</v>
+      </c>
+      <c r="Q62">
+        <v>73.381330558091307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>115</v>
+      </c>
+      <c r="E63">
+        <v>89.539214041785698</v>
+      </c>
+      <c r="F63">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G63">
+        <v>73.4881301908041</v>
+      </c>
+      <c r="H63">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>63</v>
+      </c>
+      <c r="L63">
+        <v>123</v>
+      </c>
+      <c r="M63">
+        <v>110</v>
+      </c>
+      <c r="N63">
+        <v>89.539214041785698</v>
+      </c>
+      <c r="O63">
+        <v>76.646293986383299</v>
+      </c>
+      <c r="P63">
+        <v>73.4881301908041</v>
+      </c>
+      <c r="Q63">
+        <v>68.837689777072697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>117</v>
+      </c>
+      <c r="D64">
+        <v>115</v>
+      </c>
+      <c r="E64">
+        <v>86.172358725218501</v>
+      </c>
+      <c r="F64">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G64">
+        <v>79.823891713021396</v>
+      </c>
+      <c r="H64">
+        <v>91</v>
+      </c>
+      <c r="K64">
+        <v>64</v>
+      </c>
+      <c r="L64">
+        <v>117</v>
+      </c>
+      <c r="M64">
+        <v>110</v>
+      </c>
+      <c r="N64">
+        <v>86.172358725218501</v>
+      </c>
+      <c r="O64">
+        <v>78.040254398224604</v>
+      </c>
+      <c r="P64">
+        <v>79.823891713021396</v>
+      </c>
+      <c r="Q64">
+        <v>74.174500508226103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <v>115</v>
+      </c>
+      <c r="E65">
+        <v>95.169444432512293</v>
+      </c>
+      <c r="F65">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G65">
+        <v>78.722714809124099</v>
+      </c>
+      <c r="H65">
+        <v>91</v>
+      </c>
+      <c r="K65">
+        <v>65</v>
+      </c>
+      <c r="L65">
+        <v>108</v>
+      </c>
+      <c r="N65">
+        <v>95.169444432512293</v>
+      </c>
+      <c r="P65">
+        <v>78.722714809124099</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>128</v>
+      </c>
+      <c r="D66">
+        <v>115</v>
+      </c>
+      <c r="E66">
+        <v>97.391013028165901</v>
+      </c>
+      <c r="F66">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G66">
+        <v>91.266731297019007</v>
+      </c>
+      <c r="H66">
+        <v>91</v>
+      </c>
+      <c r="K66">
+        <v>66</v>
+      </c>
+      <c r="L66">
+        <v>128</v>
+      </c>
+      <c r="N66">
+        <v>97.391013028165901</v>
+      </c>
+      <c r="P66">
+        <v>91.266731297019007</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>120</v>
+      </c>
+      <c r="D67">
+        <v>115</v>
+      </c>
+      <c r="E67">
+        <v>86.016967520684602</v>
+      </c>
+      <c r="F67">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G67">
+        <v>81.214834531391801</v>
+      </c>
+      <c r="H67">
+        <v>91</v>
+      </c>
+      <c r="K67">
+        <v>67</v>
+      </c>
+      <c r="L67">
+        <v>120</v>
+      </c>
+      <c r="M67">
+        <v>110</v>
+      </c>
+      <c r="N67">
+        <v>86.016967520684602</v>
+      </c>
+      <c r="O67">
+        <v>76.663725728219404</v>
+      </c>
+      <c r="P67">
+        <v>81.214834531391801</v>
+      </c>
+      <c r="Q67">
+        <v>73.470447082956198</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>122</v>
+      </c>
+      <c r="D68">
+        <v>115</v>
+      </c>
+      <c r="E68">
+        <v>92.823309177185294</v>
+      </c>
+      <c r="F68">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G68">
+        <v>76.168382073884302</v>
+      </c>
+      <c r="H68">
+        <v>91</v>
+      </c>
+      <c r="K68">
+        <v>68</v>
+      </c>
+      <c r="L68">
+        <v>122</v>
+      </c>
+      <c r="M68">
+        <v>110</v>
+      </c>
+      <c r="N68">
+        <v>92.823309177185294</v>
+      </c>
+      <c r="O68">
+        <v>73.273108152723793</v>
+      </c>
+      <c r="P68">
+        <v>76.168382073884302</v>
+      </c>
+      <c r="Q68">
+        <v>77.361968191566504</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>127</v>
+      </c>
+      <c r="D69">
+        <v>115</v>
+      </c>
+      <c r="E69">
+        <v>96.608021574090799</v>
+      </c>
+      <c r="F69">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G69">
+        <v>71.209530702023201</v>
+      </c>
+      <c r="H69">
+        <v>91</v>
+      </c>
+      <c r="K69">
+        <v>69</v>
+      </c>
+      <c r="L69">
+        <v>127</v>
+      </c>
+      <c r="M69">
+        <v>110</v>
+      </c>
+      <c r="N69">
+        <v>96.608021574090799</v>
+      </c>
+      <c r="O69">
+        <v>74.885577392005501</v>
+      </c>
+      <c r="P69">
+        <v>71.209530702023201</v>
+      </c>
+      <c r="Q69">
+        <v>78.845430628522607</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>128</v>
+      </c>
+      <c r="D70">
+        <v>115</v>
+      </c>
+      <c r="E70">
+        <v>94.713242159610601</v>
+      </c>
+      <c r="F70">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G70">
+        <v>83.338615400502206</v>
+      </c>
+      <c r="H70">
+        <v>91</v>
+      </c>
+      <c r="K70">
+        <v>70</v>
+      </c>
+      <c r="L70">
+        <v>128</v>
+      </c>
+      <c r="M70">
+        <v>110</v>
+      </c>
+      <c r="N70">
+        <v>94.713242159610601</v>
+      </c>
+      <c r="O70">
+        <v>77.915217686311493</v>
+      </c>
+      <c r="P70">
+        <v>83.338615400502206</v>
+      </c>
+      <c r="Q70">
+        <v>70.781841367384104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>142</v>
+      </c>
+      <c r="D71">
+        <v>115</v>
+      </c>
+      <c r="E71">
+        <v>84.595086247511603</v>
+      </c>
+      <c r="F71">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G71">
+        <v>74.687170181682305</v>
+      </c>
+      <c r="H71">
+        <v>91</v>
+      </c>
+      <c r="K71">
+        <v>71</v>
+      </c>
+      <c r="L71">
+        <v>142</v>
+      </c>
+      <c r="M71">
+        <v>110</v>
+      </c>
+      <c r="N71">
+        <v>84.595086247511603</v>
+      </c>
+      <c r="O71">
+        <v>82.788283745410297</v>
+      </c>
+      <c r="P71">
+        <v>74.687170181682305</v>
+      </c>
+      <c r="Q71">
+        <v>68.9262499957632</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>136</v>
+      </c>
+      <c r="D72">
+        <v>115</v>
+      </c>
+      <c r="E72">
+        <v>84.992252272128695</v>
+      </c>
+      <c r="F72">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G72">
+        <v>74.766708876838095</v>
+      </c>
+      <c r="H72">
+        <v>91</v>
+      </c>
+      <c r="K72">
+        <v>72</v>
+      </c>
+      <c r="L72">
+        <v>136</v>
+      </c>
+      <c r="M72">
+        <v>110</v>
+      </c>
+      <c r="N72">
+        <v>84.992252272128695</v>
+      </c>
+      <c r="O72">
+        <v>78.607551772348401</v>
+      </c>
+      <c r="P72">
+        <v>74.766708876838095</v>
+      </c>
+      <c r="Q72">
+        <v>73.119809883078801</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>146</v>
+      </c>
+      <c r="D73">
+        <v>115</v>
+      </c>
+      <c r="E73">
+        <v>90.576548592255904</v>
+      </c>
+      <c r="F73">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G73">
+        <v>81.483333081189301</v>
+      </c>
+      <c r="H73">
+        <v>91</v>
+      </c>
+      <c r="K73">
+        <v>73</v>
+      </c>
+      <c r="L73">
+        <v>146</v>
+      </c>
+      <c r="M73">
+        <v>110</v>
+      </c>
+      <c r="N73">
+        <v>90.576548592255904</v>
+      </c>
+      <c r="O73">
+        <v>77.369111630122504</v>
+      </c>
+      <c r="P73">
+        <v>81.483333081189301</v>
+      </c>
+      <c r="Q73">
+        <v>75.349954040897501</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>136</v>
+      </c>
+      <c r="D74">
+        <v>115</v>
+      </c>
+      <c r="E74">
+        <v>84.136529360653299</v>
+      </c>
+      <c r="F74">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G74">
+        <v>87.358434426207296</v>
+      </c>
+      <c r="H74">
+        <v>91</v>
+      </c>
+      <c r="K74">
+        <v>74</v>
+      </c>
+      <c r="L74">
+        <v>136</v>
+      </c>
+      <c r="M74">
+        <v>110</v>
+      </c>
+      <c r="N74">
+        <v>84.136529360653299</v>
+      </c>
+      <c r="O74">
+        <v>72.792762474099803</v>
+      </c>
+      <c r="P74">
+        <v>87.358434426207296</v>
+      </c>
+      <c r="Q74">
+        <v>72.835615044846705</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>134</v>
+      </c>
+      <c r="D75">
+        <v>115</v>
+      </c>
+      <c r="E75">
+        <v>96.6629821486938</v>
+      </c>
+      <c r="F75">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G75">
+        <v>99.819586299336194</v>
+      </c>
+      <c r="H75">
+        <v>91</v>
+      </c>
+      <c r="K75">
+        <v>75</v>
+      </c>
+      <c r="L75">
+        <v>134</v>
+      </c>
+      <c r="N75">
+        <v>96.6629821486938</v>
+      </c>
+      <c r="P75">
+        <v>99.819586299336194</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>141</v>
+      </c>
+      <c r="D76">
+        <v>115</v>
+      </c>
+      <c r="E76">
+        <v>85.522492992130495</v>
+      </c>
+      <c r="F76">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G76">
+        <v>77.722237471615102</v>
+      </c>
+      <c r="H76">
+        <v>91</v>
+      </c>
+      <c r="K76">
+        <v>76</v>
+      </c>
+      <c r="L76">
+        <v>141</v>
+      </c>
+      <c r="M76">
+        <v>110</v>
+      </c>
+      <c r="N76">
+        <v>85.522492992130495</v>
+      </c>
+      <c r="O76">
+        <v>71.618277975277493</v>
+      </c>
+      <c r="P76">
+        <v>77.722237471615102</v>
+      </c>
+      <c r="Q76">
+        <v>76.437061026929896</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>147</v>
+      </c>
+      <c r="D77">
+        <v>115</v>
+      </c>
+      <c r="E77">
+        <v>90.092623838671997</v>
+      </c>
+      <c r="F77">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G77">
+        <v>80.268180895365205</v>
+      </c>
+      <c r="H77">
+        <v>91</v>
+      </c>
+      <c r="K77">
+        <v>77</v>
+      </c>
+      <c r="L77">
+        <v>147</v>
+      </c>
+      <c r="M77">
+        <v>110</v>
+      </c>
+      <c r="N77">
+        <v>90.092623838671997</v>
+      </c>
+      <c r="O77">
+        <v>77.0906371413366</v>
+      </c>
+      <c r="P77">
+        <v>80.268180895365205</v>
+      </c>
+      <c r="Q77">
+        <v>77.713636285922107</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>133</v>
+      </c>
+      <c r="D78">
+        <v>115</v>
+      </c>
+      <c r="E78">
+        <v>83.704050007682397</v>
+      </c>
+      <c r="F78">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G78">
+        <v>84.599242745147194</v>
+      </c>
+      <c r="H78">
+        <v>91</v>
+      </c>
+      <c r="K78">
+        <v>78</v>
+      </c>
+      <c r="L78">
+        <v>133</v>
+      </c>
+      <c r="M78">
+        <v>110</v>
+      </c>
+      <c r="N78">
+        <v>83.704050007682397</v>
+      </c>
+      <c r="O78">
+        <v>81.068072125328698</v>
+      </c>
+      <c r="P78">
+        <v>84.599242745147194</v>
+      </c>
+      <c r="Q78">
+        <v>68.1026483699913</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>102</v>
+      </c>
+      <c r="D79">
+        <v>115</v>
+      </c>
+      <c r="E79">
+        <v>98.915533286725903</v>
+      </c>
+      <c r="F79">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G79">
+        <v>81.695573189360701</v>
+      </c>
+      <c r="H79">
+        <v>91</v>
+      </c>
+      <c r="K79">
+        <v>79</v>
+      </c>
+      <c r="L79">
+        <v>102</v>
+      </c>
+      <c r="N79">
+        <v>98.915533286725903</v>
+      </c>
+      <c r="P79">
+        <v>81.695573189360701</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>127</v>
+      </c>
+      <c r="D80">
+        <v>115</v>
+      </c>
+      <c r="E80">
+        <v>81.831712999377103</v>
+      </c>
+      <c r="F80">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G80">
+        <v>85.812092543503297</v>
+      </c>
+      <c r="H80">
+        <v>91</v>
+      </c>
+      <c r="K80">
+        <v>80</v>
+      </c>
+      <c r="L80">
+        <v>127</v>
+      </c>
+      <c r="M80">
+        <v>110</v>
+      </c>
+      <c r="N80">
+        <v>81.831712999377103</v>
+      </c>
+      <c r="O80">
+        <v>78.0621582972487</v>
+      </c>
+      <c r="P80">
+        <v>85.812092543503297</v>
+      </c>
+      <c r="Q80">
+        <v>72.424404435418893</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>138</v>
+      </c>
+      <c r="D81">
+        <v>115</v>
+      </c>
+      <c r="E81">
+        <v>96.298104309383007</v>
+      </c>
+      <c r="F81">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G81">
+        <v>80.569046061410404</v>
+      </c>
+      <c r="H81">
+        <v>91</v>
+      </c>
+      <c r="K81">
+        <v>81</v>
+      </c>
+      <c r="L81">
+        <v>138</v>
+      </c>
+      <c r="M81">
+        <v>110</v>
+      </c>
+      <c r="N81">
+        <v>96.298104309383007</v>
+      </c>
+      <c r="O81">
+        <v>84.595503385924602</v>
+      </c>
+      <c r="P81">
+        <v>80.569046061410404</v>
+      </c>
+      <c r="Q81">
+        <v>77.657665777273806</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>155</v>
+      </c>
+      <c r="E82">
+        <v>95.991262659083105</v>
+      </c>
+      <c r="F82">
+        <v>82.23</v>
+      </c>
+      <c r="G82">
+        <v>96.707571953477895</v>
+      </c>
+      <c r="H82">
+        <v>83</v>
+      </c>
+      <c r="K82">
+        <v>82</v>
+      </c>
+      <c r="L82">
+        <v>105</v>
+      </c>
+      <c r="N82">
+        <v>95.991262659083105</v>
+      </c>
+      <c r="P82">
+        <v>96.707571953477895</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>101</v>
+      </c>
+      <c r="D83">
+        <v>114.5</v>
+      </c>
+      <c r="E83">
+        <v>80.273453436424901</v>
+      </c>
+      <c r="F83">
+        <v>92.652822929492302</v>
+      </c>
+      <c r="G83">
+        <v>70.202624859889795</v>
+      </c>
+      <c r="H83">
+        <v>88.859267716787102</v>
+      </c>
+      <c r="K83">
+        <v>83</v>
+      </c>
+      <c r="L83">
+        <v>101</v>
+      </c>
+      <c r="N83">
+        <v>80.273453436424901</v>
+      </c>
+      <c r="P83">
+        <v>70.202624859889795</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>140</v>
+      </c>
+      <c r="D84">
+        <v>115</v>
+      </c>
+      <c r="E84">
+        <v>89.485631459052897</v>
+      </c>
+      <c r="F84">
+        <v>94.559999999999903</v>
+      </c>
+      <c r="G84">
+        <v>81.769751587192403</v>
+      </c>
+      <c r="H84">
+        <v>91</v>
+      </c>
+      <c r="K84">
+        <v>84</v>
+      </c>
+      <c r="L84">
+        <v>140</v>
+      </c>
+      <c r="M84">
+        <v>110</v>
+      </c>
+      <c r="N84">
+        <v>89.485631459052897</v>
+      </c>
+      <c r="O84">
+        <v>76.642884214501194</v>
+      </c>
+      <c r="P84">
+        <v>81.769751587192403</v>
+      </c>
+      <c r="Q84">
+        <v>72.742608043006598</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>103</v>
+      </c>
+      <c r="D85">
+        <v>155</v>
+      </c>
+      <c r="E85">
+        <v>85.011164483243206</v>
+      </c>
+      <c r="F85">
+        <v>82.23</v>
+      </c>
+      <c r="G85">
+        <v>94.3536423259267</v>
+      </c>
+      <c r="H85">
+        <v>83</v>
+      </c>
+      <c r="K85">
+        <v>85</v>
+      </c>
+      <c r="L85">
+        <v>103</v>
+      </c>
+      <c r="N85">
+        <v>85.011164483243206</v>
+      </c>
+      <c r="P85">
+        <v>94.3536423259267</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>102</v>
+      </c>
+      <c r="D86">
+        <v>114.375</v>
+      </c>
+      <c r="E86">
+        <v>84.512534916113793</v>
+      </c>
+      <c r="F86">
+        <v>93.344358074515995</v>
+      </c>
+      <c r="G86">
+        <v>70.365954390365701</v>
+      </c>
+      <c r="H86">
+        <v>89.013553533571297</v>
+      </c>
+      <c r="K86">
+        <v>86</v>
+      </c>
+      <c r="L86">
+        <v>102</v>
+      </c>
+      <c r="N86">
+        <v>84.512534916113793</v>
+      </c>
+      <c r="P86">
+        <v>70.365954390365701</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>119</v>
+      </c>
+      <c r="D87">
+        <v>115</v>
+      </c>
+      <c r="E87">
+        <v>97.770519019891196</v>
+      </c>
+      <c r="F87">
+        <v>94.56</v>
+      </c>
+      <c r="G87">
+        <v>95.348383711673094</v>
+      </c>
+      <c r="H87">
+        <v>91</v>
+      </c>
+      <c r="K87">
+        <v>87</v>
+      </c>
+      <c r="L87">
+        <v>119</v>
+      </c>
+      <c r="N87">
+        <v>97.770519019891196</v>
+      </c>
+      <c r="P87">
+        <v>95.348383711673094</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>145</v>
+      </c>
+      <c r="D88">
+        <v>115</v>
+      </c>
+      <c r="E88">
+        <v>86.787934980055795</v>
+      </c>
+      <c r="F88">
+        <v>94.56</v>
+      </c>
+      <c r="G88">
+        <v>74.991628949315199</v>
+      </c>
+      <c r="H88">
+        <v>91</v>
+      </c>
+      <c r="K88">
+        <v>88</v>
+      </c>
+      <c r="L88">
+        <v>145</v>
+      </c>
+      <c r="M88">
+        <v>110</v>
+      </c>
+      <c r="N88">
+        <v>86.787934980055795</v>
+      </c>
+      <c r="O88">
+        <v>76.789418322492907</v>
+      </c>
+      <c r="P88">
+        <v>74.991628949315199</v>
+      </c>
+      <c r="Q88">
+        <v>68.370909206818396</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>139</v>
+      </c>
+      <c r="D89">
+        <v>115</v>
+      </c>
+      <c r="E89">
+        <v>81.524887544845001</v>
+      </c>
+      <c r="F89">
+        <v>94.56</v>
+      </c>
+      <c r="G89">
+        <v>95.577187754327397</v>
+      </c>
+      <c r="H89">
+        <v>91</v>
+      </c>
+      <c r="K89">
+        <v>89</v>
+      </c>
+      <c r="L89">
+        <v>139</v>
+      </c>
+      <c r="N89">
+        <v>81.524887544845001</v>
+      </c>
+      <c r="P89">
+        <v>95.577187754327397</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>107</v>
+      </c>
+      <c r="D90">
+        <v>115</v>
+      </c>
+      <c r="E90">
+        <v>93.612300964735695</v>
+      </c>
+      <c r="F90">
+        <v>94.56</v>
+      </c>
+      <c r="G90">
+        <v>88.390857147591603</v>
+      </c>
+      <c r="H90">
+        <v>91</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>107</v>
+      </c>
+      <c r="N90">
+        <v>93.612300964735695</v>
+      </c>
+      <c r="P90">
+        <v>88.390857147591603</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>126</v>
+      </c>
+      <c r="D91">
+        <v>115</v>
+      </c>
+      <c r="E91">
+        <v>83.324816566802994</v>
+      </c>
+      <c r="F91">
+        <v>94.56</v>
+      </c>
+      <c r="G91">
+        <v>97.610450749062196</v>
+      </c>
+      <c r="H91">
+        <v>91</v>
+      </c>
+      <c r="K91">
+        <v>91</v>
+      </c>
+      <c r="L91">
+        <v>126</v>
+      </c>
+      <c r="N91">
+        <v>83.324816566802994</v>
+      </c>
+      <c r="P91">
+        <v>97.610450749062196</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>128</v>
+      </c>
+      <c r="D92">
+        <v>115</v>
+      </c>
+      <c r="E92">
+        <v>87.728054100272999</v>
+      </c>
+      <c r="F92">
+        <v>94.56</v>
+      </c>
+      <c r="G92">
+        <v>81.534326110819094</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+      <c r="K92">
+        <v>92</v>
+      </c>
+      <c r="L92">
+        <v>128</v>
+      </c>
+      <c r="M92">
+        <v>110</v>
+      </c>
+      <c r="N92">
+        <v>87.728054100272999</v>
+      </c>
+      <c r="O92">
+        <v>78.5526892013267</v>
+      </c>
+      <c r="P92">
+        <v>81.534326110819094</v>
+      </c>
+      <c r="Q92">
+        <v>56.295254661477998</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>149</v>
+      </c>
+      <c r="D93">
+        <v>115</v>
+      </c>
+      <c r="E93">
+        <v>96.888607746291399</v>
+      </c>
+      <c r="F93">
+        <v>94.56</v>
+      </c>
+      <c r="G93">
+        <v>70.431487060254995</v>
+      </c>
+      <c r="H93">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <v>93</v>
+      </c>
+      <c r="L93">
+        <v>149</v>
+      </c>
+      <c r="M93">
+        <v>110</v>
+      </c>
+      <c r="N93">
+        <v>96.888607746291399</v>
+      </c>
+      <c r="O93">
+        <v>84.196554290984494</v>
+      </c>
+      <c r="P93">
+        <v>70.431487060254995</v>
+      </c>
+      <c r="Q93">
+        <v>58.489343849061598</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>108</v>
+      </c>
+      <c r="D94">
+        <v>115</v>
+      </c>
+      <c r="E94">
+        <v>94.187580269888002</v>
+      </c>
+      <c r="F94">
+        <v>94.56</v>
+      </c>
+      <c r="G94">
+        <v>71.630940568012306</v>
+      </c>
+      <c r="H94">
+        <v>91</v>
+      </c>
+      <c r="K94">
+        <v>94</v>
+      </c>
+      <c r="L94">
+        <v>108</v>
+      </c>
+      <c r="N94">
+        <v>94.187580269888002</v>
+      </c>
+      <c r="P94">
+        <v>71.630940568012306</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>144</v>
+      </c>
+      <c r="D95">
+        <v>115</v>
+      </c>
+      <c r="E95">
+        <v>85.030493427564707</v>
+      </c>
+      <c r="F95">
+        <v>94.56</v>
+      </c>
+      <c r="G95">
+        <v>89.597659006081898</v>
+      </c>
+      <c r="H95">
+        <v>91</v>
+      </c>
+      <c r="K95">
+        <v>95</v>
+      </c>
+      <c r="L95">
+        <v>144</v>
+      </c>
+      <c r="M95">
+        <v>110</v>
+      </c>
+      <c r="N95">
+        <v>85.030493427564707</v>
+      </c>
+      <c r="O95">
+        <v>70.280089975863802</v>
+      </c>
+      <c r="P95">
+        <v>89.597659006081898</v>
+      </c>
+      <c r="Q95">
+        <v>71.823979754749999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>136</v>
+      </c>
+      <c r="D96">
+        <v>115</v>
+      </c>
+      <c r="E96">
+        <v>89.525224807585701</v>
+      </c>
+      <c r="F96">
+        <v>94.56</v>
+      </c>
+      <c r="G96">
+        <v>92.317587785679606</v>
+      </c>
+      <c r="H96">
+        <v>91</v>
+      </c>
+      <c r="K96">
+        <v>96</v>
+      </c>
+      <c r="L96">
+        <v>136</v>
+      </c>
+      <c r="N96">
+        <v>89.525224807585701</v>
+      </c>
+      <c r="P96">
+        <v>92.317587785679606</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>155</v>
+      </c>
+      <c r="E97">
+        <v>91.749542826545493</v>
+      </c>
+      <c r="F97">
+        <v>82.23</v>
+      </c>
+      <c r="G97">
+        <v>95.948498512484207</v>
+      </c>
+      <c r="H97">
+        <v>83</v>
+      </c>
+      <c r="K97">
+        <v>97</v>
+      </c>
+      <c r="L97">
+        <v>100</v>
+      </c>
+      <c r="N97">
+        <v>91.749542826545493</v>
+      </c>
+      <c r="P97">
+        <v>95.948498512484207</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <v>128</v>
+      </c>
+      <c r="D98">
+        <v>115</v>
+      </c>
+      <c r="E98">
+        <v>85.203358570194993</v>
+      </c>
+      <c r="F98">
+        <v>94.56</v>
+      </c>
+      <c r="G98">
+        <v>92.672318339190895</v>
+      </c>
+      <c r="H98">
+        <v>91</v>
+      </c>
+      <c r="K98">
+        <v>98</v>
+      </c>
+      <c r="L98">
+        <v>128</v>
+      </c>
+      <c r="N98">
+        <v>85.203358570194993</v>
+      </c>
+      <c r="P98">
+        <v>92.672318339190895</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <v>118</v>
+      </c>
+      <c r="D99">
+        <v>155</v>
+      </c>
+      <c r="E99">
+        <v>92.003397797026594</v>
+      </c>
+      <c r="F99">
+        <v>82.23</v>
+      </c>
+      <c r="G99">
+        <v>96.382608458292694</v>
+      </c>
+      <c r="H99">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="K3:R100">
+    <sortCondition ref="K3:K100"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="K1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OutputData/After Normalization/Old experiments.xlsx
+++ b/OutputData/After Normalization/Old experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fuzzy and Crisp" sheetId="1" r:id="rId1"/>
@@ -43,16 +43,10 @@
     <t>AVG BW</t>
   </si>
   <si>
-    <t>Proposed broker w/o Migration</t>
-  </si>
-  <si>
     <t>Proposed broker</t>
   </si>
   <si>
     <t>Crisp broker</t>
-  </si>
-  <si>
-    <t>Proposed broker w/o Trust</t>
   </si>
   <si>
     <t>d_avail = 15.0</t>
@@ -74,6 +68,14 @@
   </si>
   <si>
     <t>alpha = 0.8</t>
+  </si>
+  <si>
+    <t>Proposed broker 
+w/o Migration</t>
+  </si>
+  <si>
+    <t>Proposed broker 
+w/o Trust</t>
   </si>
 </sst>
 </file>
@@ -109,13 +111,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,6 +171,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -566,11 +576,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed broker w/o Trust</c:v>
+                  <c:v>Proposed broker 
+w/o Trust</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -763,11 +779,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="75832704"/>
-        <c:axId val="75851648"/>
+        <c:axId val="100464128"/>
+        <c:axId val="105533440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75832704"/>
+        <c:axId val="100464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,10 +795,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Time (in weeks)</a:t>
                 </a:r>
               </a:p>
@@ -793,14 +809,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75851648"/>
+        <c:crossAx val="105533440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75851648"/>
+        <c:axId val="105533440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -814,10 +830,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average DSS</a:t>
                 </a:r>
               </a:p>
@@ -837,7 +853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75832704"/>
+        <c:crossAx val="100464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,7 +866,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -860,7 +876,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -869,114 +885,227 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-IN"/>
+  <c:style val="3"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Number of requests dispatched to a faulty provider</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 &amp; 23'!$C$2</c:f>
+              <c:f>Sheet3!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQ COST</c:v>
+                  <c:v>alpha = 0.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$C$3:$C$30</c:f>
+              <c:f>Sheet3!$A$2:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>119</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>146</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>148</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>143</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>138</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,104 +1116,197 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 &amp; 23'!$B$1</c:f>
+              <c:f>Sheet3!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed broker</c:v>
+                  <c:v>alpha = 0.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$D$3:$D$30</c:f>
+              <c:f>Sheet3!$F$2:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>113.64406779661</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.706896551724</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.771929824561</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.771929824561</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.839285714285</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.90909090909</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.90909090909</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.90909090909</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113.90909090909</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.056603773584</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114.215686274509</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114.215686274509</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.38775510204</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.886363636363</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114.886363636363</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.886363636363</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.87804878048701</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>115</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,101 +1317,434 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 &amp; 23'!$K$1</c:f>
+              <c:f>Sheet3!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Crisp broker</c:v>
+                  <c:v>alpha = 0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$M$3:$M$30</c:f>
+              <c:f>Sheet3!$K$2:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>110</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>110</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>110</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="133459328"/>
-        <c:axId val="61441152"/>
-      </c:lineChart>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha = 0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$2:$P$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="106032512"/>
+        <c:axId val="105919616"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="133459328"/>
+        <c:axId val="106032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61441152"/>
+        <c:crossAx val="105919616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61441152"/>
+        <c:axId val="105919616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133459328"/>
+        <c:crossAx val="106032512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1197,12 +1752,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1221,110 +1786,104 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 &amp; 23'!$G$2</c:f>
+              <c:f>'17 &amp; 23'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQ BW</c:v>
+                  <c:v>REQ COST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$G$3:$G$32</c:f>
+              <c:f>'17 &amp; 23'!$C$3:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>74.877033571786001</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.148773753208204</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.153641379865405</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.994379242665502</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.9199901954388</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.053415508498105</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.214230041656805</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.547494831831997</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.548932538549593</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.675278975635806</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.615465537068701</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.032435337396507</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82.919603284189293</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.079225528709699</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.104710551391094</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.492499631830299</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.638150509202902</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.542834289401995</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.095732415009905</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.628633628000998</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73.001400039706098</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.139527333029903</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.273339401111699</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94.396547430339496</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.681673604104503</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>73.640312858420799</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.364826763342293</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>92.995941822956198</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>92.619329518437496</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>71.612019893511402</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,93 +1905,93 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$H$3:$H$30</c:f>
+              <c:f>'17 &amp; 23'!$D$3:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>89.950233637771902</c:v>
+                  <c:v>113.64406779661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.219371619606704</c:v>
+                  <c:v>113.706896551724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.7737177081341</c:v>
+                  <c:v>113.771929824561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.471423316384801</c:v>
+                  <c:v>113.771929824561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.069807891077105</c:v>
+                  <c:v>113.839285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.826192867050295</c:v>
+                  <c:v>113.90909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.919242426584603</c:v>
+                  <c:v>113.90909090909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.311388524322496</c:v>
+                  <c:v>113.90909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.585978751259304</c:v>
+                  <c:v>113.90909090909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.251844564647698</c:v>
+                  <c:v>114.056603773584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.739752845928905</c:v>
+                  <c:v>114.215686274509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.561025372902904</c:v>
+                  <c:v>114.215686274509</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.151489813137601</c:v>
+                  <c:v>114.38775510204</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.145471721438795</c:v>
+                  <c:v>114.886363636363</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90.534617920464996</c:v>
+                  <c:v>114.886363636363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90.841210865612695</c:v>
+                  <c:v>114.886363636363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90.266579250477207</c:v>
+                  <c:v>114.87804878048701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>91</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,82 +2013,82 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$Q$3:$Q$30</c:f>
+              <c:f>'17 &amp; 23'!$M$3:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="2">
-                  <c:v>76.625105324896495</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.238683110422997</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.254188371295101</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.753108830441704</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.936787399107104</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.658512264056895</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77.363213686904501</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.867970195856898</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.578277297300403</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.332370771075603</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.278045995287997</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.038643025193196</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.333306750019801</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.692138368707305</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.993157245371094</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>73.578006038426395</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54556160"/>
-        <c:axId val="57975936"/>
+        <c:axId val="105960960"/>
+        <c:axId val="105962496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54556160"/>
+        <c:axId val="105960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57975936"/>
+        <c:crossAx val="105962496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57975936"/>
+        <c:axId val="105962496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +2096,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54556160"/>
+        <c:crossAx val="105960960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1550,7 +2109,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1569,104 +2128,110 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'17 &amp; 23'!$E$2</c:f>
+              <c:f>'17 &amp; 23'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REQ AVAIL</c:v>
+                  <c:v>REQ BW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$E$3:$E$30</c:f>
+              <c:f>'17 &amp; 23'!$G$3:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>82.291894604534406</c:v>
+                  <c:v>74.877033571786001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.048630825867804</c:v>
+                  <c:v>91.148773753208204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.822117273015905</c:v>
+                  <c:v>75.153641379865405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.560054781188796</c:v>
+                  <c:v>98.994379242665502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.674104314774496</c:v>
+                  <c:v>82.9199901954388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.132234655528194</c:v>
+                  <c:v>90.053415508498105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.054967903669805</c:v>
+                  <c:v>84.214230041656805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.562176929540001</c:v>
+                  <c:v>81.547494831831997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.9480904714746</c:v>
+                  <c:v>80.548932538549593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.522351405912005</c:v>
+                  <c:v>78.675278975635806</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.016563036154494</c:v>
+                  <c:v>89.615465537068701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.193248350281493</c:v>
+                  <c:v>73.032435337396507</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80.958236198971804</c:v>
+                  <c:v>82.919603284189293</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.445849291894405</c:v>
+                  <c:v>80.079225528709699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.589854542551507</c:v>
+                  <c:v>71.104710551391094</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.120655424333904</c:v>
+                  <c:v>88.492499631830299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.897518053257699</c:v>
+                  <c:v>80.638150509202902</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.510130255548205</c:v>
+                  <c:v>81.542834289401995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.714477554510296</c:v>
+                  <c:v>89.095732415009905</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.327095398752604</c:v>
+                  <c:v>95.628633628000998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.475512979217001</c:v>
+                  <c:v>73.001400039706098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.376760324211403</c:v>
+                  <c:v>70.139527333029903</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.572608125530905</c:v>
+                  <c:v>79.273339401111699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.075658006137303</c:v>
+                  <c:v>94.396547430339496</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.833398909536498</c:v>
+                  <c:v>83.681673604104503</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.782439062195905</c:v>
+                  <c:v>73.640312858420799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95.871820823861199</c:v>
+                  <c:v>74.364826763342293</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>91.672612253531597</c:v>
+                  <c:v>92.995941822956198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.619329518437496</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.612019893511402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,93 +2253,93 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$F$3:$F$30</c:f>
+              <c:f>'17 &amp; 23'!$H$3:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>94.6932493273723</c:v>
+                  <c:v>89.950233637771902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.56</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.6743541087734</c:v>
+                  <c:v>90.219371619606704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.56</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.372557624597704</c:v>
+                  <c:v>89.7737177081341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.168215748039003</c:v>
+                  <c:v>89.471423316384801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.470723181578705</c:v>
+                  <c:v>90.069807891077105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.8903012183426</c:v>
+                  <c:v>89.826192867050295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.898844317368201</c:v>
+                  <c:v>89.919242426584603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.297043907649893</c:v>
+                  <c:v>89.311388524322496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.927300181036202</c:v>
+                  <c:v>90.585978751259304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.297820822191696</c:v>
+                  <c:v>90.251844564647698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.841939437622798</c:v>
+                  <c:v>89.739752845928905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.797742359363298</c:v>
+                  <c:v>90.561025372902904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.470800250612101</c:v>
+                  <c:v>90.151489813137601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.5002209263411</c:v>
+                  <c:v>90.145471721438795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.994371288471896</c:v>
+                  <c:v>90.534617920464996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93.803470739069397</c:v>
+                  <c:v>90.841210865612695</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.282220799555802</c:v>
+                  <c:v>90.266579250477207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>94.559999999999903</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,82 +2361,82 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'17 &amp; 23'!$O$3:$O$30</c:f>
+              <c:f>'17 &amp; 23'!$Q$3:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="2">
-                  <c:v>82.740390072387299</c:v>
+                  <c:v>76.625105324896495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.596990180809797</c:v>
+                  <c:v>74.238683110422997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.397193631098006</c:v>
+                  <c:v>75.254188371295101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.634710440091496</c:v>
+                  <c:v>76.753108830441704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.367073845482196</c:v>
+                  <c:v>76.936787399107104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.457254688769694</c:v>
+                  <c:v>71.658512264056895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.5248677370178</c:v>
+                  <c:v>77.363213686904501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.037048784669096</c:v>
+                  <c:v>73.867970195856898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.276888745002296</c:v>
+                  <c:v>73.578277297300403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.917211177430801</c:v>
+                  <c:v>74.332370771075603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80.157445817911807</c:v>
+                  <c:v>70.278045995287997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.235715261470403</c:v>
+                  <c:v>74.038643025193196</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83.472848750275901</c:v>
+                  <c:v>72.333306750019801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78.103180771404496</c:v>
+                  <c:v>75.692138368707305</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79.9276498147008</c:v>
+                  <c:v>71.993157245371094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.875956300392104</c:v>
+                  <c:v>73.578006038426395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54541696"/>
-        <c:axId val="54543872"/>
+        <c:axId val="106061824"/>
+        <c:axId val="106063360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54541696"/>
+        <c:axId val="106061824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54543872"/>
+        <c:crossAx val="106063360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54543872"/>
+        <c:axId val="106063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,20 +2444,360 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54541696"/>
+        <c:crossAx val="106061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REQ AVAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$E$3:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>82.291894604534406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.048630825867804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.822117273015905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.560054781188796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.674104314774496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.132234655528194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.054967903669805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.562176929540001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.9480904714746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.522351405912005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.016563036154494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.193248350281493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.958236198971804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.445849291894405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.589854542551507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.120655424333904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.897518053257699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.510130255548205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.714477554510296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.327095398752604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.475512979217001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.376760324211403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.572608125530905</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.075658006137303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.833398909536498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.782439062195905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.871820823861199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.672612253531597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$F$3:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>94.6932493273723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.6743541087734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.372557624597704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.168215748039003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.470723181578705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.8903012183426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.898844317368201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.297043907649893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.927300181036202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.297820822191696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.841939437622798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.797742359363298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.470800250612101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.5002209263411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.994371288471896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.803470739069397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.282220799555802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.559999999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'17 &amp; 23'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crisp broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'17 &amp; 23'!$O$3:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="2">
+                  <c:v>82.740390072387299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.596990180809797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.397193631098006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.634710440091496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.367073845482196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.457254688769694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.5248677370178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.037048784669096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.276888745002296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.917211177430801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.157445817911807</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.235715261470403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.472848750275901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.103180771404496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.9276498147008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78.875956300392104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="106100992"/>
+        <c:axId val="106106880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="106100992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106106880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106106880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106100992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1918,6 +2823,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1937,6 +2843,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2330,11 +3241,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102173696"/>
-        <c:axId val="102188160"/>
+        <c:axId val="105587840"/>
+        <c:axId val="105589760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102173696"/>
+        <c:axId val="105587840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,27 +3257,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Time (in weeks)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102188160"/>
+        <c:crossAx val="105589760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102188160"/>
+        <c:axId val="105589760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2380,15 +3292,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average DSS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2402,19 +3315,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102173696"/>
+        <c:crossAx val="105587840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -2424,7 +3338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2450,6 +3364,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2469,6 +3384,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2665,11 +3585,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed broker w/o Migration</c:v>
+                  <c:v>Proposed broker 
+w/o Migration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3066,11 +3992,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102214656"/>
-        <c:axId val="102225024"/>
+        <c:axId val="105628800"/>
+        <c:axId val="105630720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102214656"/>
+        <c:axId val="105628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,27 +4008,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Time (in weeks)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102225024"/>
+        <c:crossAx val="105630720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102225024"/>
+        <c:axId val="105630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -3116,15 +4043,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average DSS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -3138,19 +4066,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102214656"/>
+        <c:crossAx val="105628800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200"/>
+            <a:defRPr sz="1800" b="0"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -3160,7 +4089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3201,7 +4130,7 @@
           <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>User Requirement</c:v>
+            <c:v>User Req</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -3211,6 +4140,7 @@
                   <a:lumOff val="40000"/>
                 </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3327,6 +4257,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3505,11 +4436,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102152064"/>
-        <c:axId val="102162432"/>
+        <c:axId val="105682048"/>
+        <c:axId val="105683968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102152064"/>
+        <c:axId val="105682048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,10 +4452,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Users</a:t>
                 </a:r>
               </a:p>
@@ -3534,14 +4465,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102162432"/>
+        <c:crossAx val="105683968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102162432"/>
+        <c:axId val="105683968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3556,10 +4487,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average bandwidth</a:t>
                 </a:r>
               </a:p>
@@ -3569,7 +4500,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102152064"/>
+        <c:crossAx val="105682048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3577,12 +4508,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3618,7 +4559,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>User Requirement</c:v>
+            <c:v>User Req</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -3628,6 +4569,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3738,6 +4680,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3916,11 +4859,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102266752"/>
-        <c:axId val="102273024"/>
+        <c:axId val="105735296"/>
+        <c:axId val="105737216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102266752"/>
+        <c:axId val="105735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3932,10 +4875,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Users</a:t>
                 </a:r>
               </a:p>
@@ -3945,14 +4888,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102273024"/>
+        <c:crossAx val="105737216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102273024"/>
+        <c:axId val="105737216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -3967,10 +4910,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average cost</a:t>
                 </a:r>
               </a:p>
@@ -3980,7 +4923,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102266752"/>
+        <c:crossAx val="105735296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,12 +4931,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4040,16 +4993,27 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7283858570796444E-2"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.75758142241457738"/>
+          <c:h val="0.55665062700495771"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>User Requirement</c:v>
+            <c:v>User Req</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -4059,6 +5023,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4175,6 +5140,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4356,11 +5322,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102307712"/>
-        <c:axId val="102313984"/>
+        <c:axId val="105780352"/>
+        <c:axId val="105782272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102307712"/>
+        <c:axId val="105780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,26 +5338,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Users</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102313984"/>
+        <c:crossAx val="105782272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102313984"/>
+        <c:axId val="105782272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4406,37 +5373,1012 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>Average availability</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.591993841416473E-3"/>
+              <c:y val="0.11609981044036161"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102307712"/>
+        <c:crossAx val="105780352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Average DSS over time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fuzzy and Crisp'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crisp broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fuzzy and Crisp'!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65452857142857102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58096249999999905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55316874999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56161874999999895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55009999999999903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55598947368421003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56385238095238099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56246521739130395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56479130434782598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56162800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56285925925925895</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56781071428571395</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55766428571428495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54691428571428502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55422142857142798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.54299642857142805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55618928571428505</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54693571428571397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55781034482758596</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56334193548387101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55533437499999905</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.56076000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55041111111111096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56165750000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55145250000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55394390243902403</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.55198095238095202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.54296444444444403</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55122000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55852222222222203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.552891111111111</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55058478260869503</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55071521739130402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.54417173913043404</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54787872340425503</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.55154166666666604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.552489795918367</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55858571428571402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54837400000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54846599999999901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54779</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54832352941176399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55356862745098001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fuzzy and Crisp'!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker 
+w/o Migration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fuzzy and Crisp'!$K$2:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78962857142857101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75608666666666602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76413636363636295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.767242857142857</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77696111111111099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78014736842105203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78469750000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79006097560975597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79543333333333299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79693488372093002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80934222222222196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81365957446808501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81518333333333304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.81552500000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.81809387755102003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82634705882352899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82700188679245301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83236909090909095</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.834176785714286</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83331428571428601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83367068965517299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83868225806451602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83753906249999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85119130434782597</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85052857142857197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85264929577464799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85334027777777799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85568904109589095</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.86019333333333303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86033421052631598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86114430379746798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86595731707317003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86606385542168596</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.86541666666666595</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.86998255813953396</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87003103448275798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.87067865168539205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.87553369565217298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.87714408602150395</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.87475698924731105</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.87683163265305997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.87982222222222095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fuzzy and Crisp'!$V$1:$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fuzzy and Crisp'!$U$2:$U$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.801685714285714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93710400000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93662413793103405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93656874999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94234590163934495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94185079365079405</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94108412698412702</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.94075846153846199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.942036363636364</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94170294117647102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94112941176470599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.94250958904109605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.94270270270270295</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.942673684210526</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94219249999999899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94273373493975798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94295999999999902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94336511627906905</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.943161627906976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.94224137931034402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.94272045454545395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.943171428571427</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94370537634408502</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.94339578947368297</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.94353020833333201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94353571428571303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fuzzy and Crisp'!$AE$1:$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed broker 
+w/o Trust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fuzzy and Crisp'!$AD$2:$AD$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.947599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80586400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84262962962962895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82563548387096797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82974062500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82547812499999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82320937500000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82637058823529397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81000555555555598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80905263157894702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80458095238095195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79653111111111097</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79570222222222198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79662444444444402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80213124999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79818800000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.79413396226415101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78941851851851896</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78644912280701795</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77983050847457602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77588983050847504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77848593749999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77037313432835797</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75892714285714302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76190273972602796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.770798684210526</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77219350649350604</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77406874999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.77773827160493803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.777302352941177</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78140689655172402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.79023068181818201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.79116853932584197</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78846555555555498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78677692307692304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79281086956521696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79234130434782502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.79050531914893596</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.78597812499999897</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79078144329896904</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79290202020202005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79249700000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79518200000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.79777799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:hiLowLines/>
+        <c:marker val="1"/>
+        <c:axId val="143822848"/>
+        <c:axId val="90588288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143822848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1800"/>
+                  <a:t>Time (in weeks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90588288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90588288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1800"/>
+                  <a:t>Average DSS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143822848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-IN"/>
   <c:chart>
@@ -4470,7 +6412,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.5959795221013931E-2"/>
           <c:y val="0.11921771683301492"/>
-          <c:w val="0.80104579119399177"/>
+          <c:w val="0.80104579119399211"/>
           <c:h val="0.78436005023181621"/>
         </c:manualLayout>
       </c:layout>
@@ -4490,6 +6432,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln cmpd="dbl">
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4856,6 +6803,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5020,16 +6972,13 @@
           <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REQ AVAIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Req Avail</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5192,11 +7141,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="102474112"/>
-        <c:axId val="102476032"/>
+        <c:axId val="105838848"/>
+        <c:axId val="105849216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102474112"/>
+        <c:axId val="105838848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,17 +7157,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1600"/>
+                  <a:rPr lang="en-IN" sz="1800"/>
                   <a:t>User</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1600" baseline="0"/>
+                  <a:rPr lang="en-IN" sz="1800" baseline="0"/>
                   <a:t> Requests</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN" sz="1600"/>
+                <a:endParaRPr lang="en-IN" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5227,14 +7176,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102476032"/>
+        <c:crossAx val="105849216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102476032"/>
+        <c:axId val="105849216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5249,12 +7198,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1400"/>
-                  <a:t>Selected  availability</a:t>
+                  <a:rPr lang="en-IN" sz="1800"/>
+                  <a:t>Availability</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1800" baseline="0"/>
+                  <a:t> of selected provider</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5262,7 +7216,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102474112"/>
+        <c:crossAx val="105838848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5275,7 +7229,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5285,13 +7239,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-IN"/>
   <c:chart>
@@ -5301,10 +7255,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0027862822734422E-2"/>
+          <c:x val="9.002786282273452E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.80119220559231696"/>
-          <c:h val="0.82335111336889377"/>
+          <c:w val="0.78087043099290832"/>
+          <c:h val="0.82335111336889444"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5323,6 +7277,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln cmpd="dbl">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5527,6 +7486,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5731,6 +7695,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6127,11 +8096,11 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="102407168"/>
-        <c:axId val="102421632"/>
+        <c:axId val="105995648"/>
+        <c:axId val="106006016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102407168"/>
+        <c:axId val="105995648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,10 +8112,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="2000"/>
                   <a:t>Time</a:t>
                 </a:r>
               </a:p>
@@ -6156,24 +8125,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47562255395467617"/>
-              <c:y val="0.93634544069088166"/>
+              <c:x val="0.47562255395467656"/>
+              <c:y val="0.93634544069088232"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102421632"/>
+        <c:crossAx val="106006016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102421632"/>
+        <c:axId val="106006016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.75000000000000022"/>
+          <c:min val="0.75000000000000056"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -6184,10 +8155,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="2000"/>
                   <a:t>Trust in availability</a:t>
                 </a:r>
               </a:p>
@@ -6197,7 +8168,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102407168"/>
+        <c:crossAx val="105995648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6210,7 +8181,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6220,896 +8191,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Number of requests dispatched to a faulty provider</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alpha = 0.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$A$2:$A$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alpha = 0.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$F$2:$F$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alpha = 0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$K$2:$K$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>alpha = 0.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$2:$P$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="55"/>
-        <c:overlap val="100"/>
-        <c:axId val="102605568"/>
-        <c:axId val="102607104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="102605568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102607104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="102607104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102605568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7297,6 +8379,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7305,13 +8417,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:colOff>40822</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -7815,15 +8927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:H59"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7832,8 +8944,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -7842,7 +8954,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="V1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -7850,8 +8962,8 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AE1" s="2" t="s">
-        <v>10</v>
+      <c r="AE1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -16766,15 +17878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:26">
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -16783,7 +17895,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -16792,7 +17904,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -20461,33 +21573,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -23459,7 +24571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -23467,7 +24579,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -23476,7 +24588,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
